--- a/netflix/netflixdata.xlsx
+++ b/netflix/netflixdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfrench/Documents/GitHub/mfrench022.github.io/netflix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C56E965-8369-E443-A205-FFD4DD2E7DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C475E-8672-314A-9B04-47EB2FB70F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20620" xr2:uid="{21CC8580-87DA-0D46-8496-36EF45DF49AC}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="10000" windowHeight="20620" activeTab="1" xr2:uid="{21CC8580-87DA-0D46-8496-36EF45DF49AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="13" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -572,10 +572,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7715,7 +7714,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75816CFA-1B5A-F544-B8B7-FCB29048CBC2}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75816CFA-1B5A-F544-B8B7-FCB29048CBC2}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -8200,7 +8199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B657F61C-8820-A143-AEC8-5324EC1F0072}">
   <dimension ref="A3:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
@@ -8216,15 +8215,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -8256,544 +8255,447 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2004</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>101200000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>1600000</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>59800000</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>162600000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2005</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>4600000</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>111600000</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>116200000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>2006</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>8600000</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>42800000</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>51400000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>2007</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>31100000</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>50800000</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>81900000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>2008</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>2200000</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>1800000</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>129300000</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>133300000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>2009</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>63200000</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>5000000</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>68200000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2010</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>14000000</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>1600000</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>83100000</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>98700000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>2011</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>31900000</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>2000000</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>157600000</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>7800000</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>199300000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2012</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>28200000</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>10500000</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>60600000</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>99300000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2013</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>85500000</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>180400000</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>2600000</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>268500000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2014</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>68900000</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>4000000</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>99100000</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>172000000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2015</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>35100000</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>2200000</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>33500000</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>166600000</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>237400000</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2016</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>17700000</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>153700000</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>14600000</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>186000000</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>2017</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>84700000</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>3300000</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>185400000</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>1700000</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18">
         <v>275100000</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>2018</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>75800000</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>54900000</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>3500000</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>364300000</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>498500000</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>2019</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>86200000</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>23600000</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>10600000</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>183500000</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2">
+      <c r="J20">
         <v>303900000</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>2020</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>89200000</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>3600000</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>2800000</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>36700000</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>227500000</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
+      <c r="I21">
         <v>1600000</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21">
         <v>361400000</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>2021</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>153000000</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>21800000</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>3700000</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>8200000</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>503100000</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2">
+      <c r="J22">
         <v>689800000</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>2022</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>181600000</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>20200000</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>14200000</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>333900000</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2">
+      <c r="J23">
         <v>549900000</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>2023</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>205500000</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>31600000</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>21200000</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>382100000</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2">
+      <c r="H24">
         <v>2100000</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
+      <c r="J24">
         <v>642500000</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>2024</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>98400000</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>70400000</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>19000000</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>388700000</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2">
+      <c r="H25">
         <v>3200000</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2">
+      <c r="J25">
         <v>579700000</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>2025</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>89100000</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>186800000</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>49000000</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>1188500000</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
+      <c r="I26">
         <v>1600000</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26">
         <v>1515000000</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>1555700000</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>427800000</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>6500000</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>208000000</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>5057400000</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <v>14600000</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27">
         <v>5300000</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27">
         <v>15300000</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27">
         <v>7290600000</v>
       </c>
     </row>
@@ -8806,8 +8708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290E20F8-F003-F243-B733-6944E417CBA6}">
   <dimension ref="A1:F1404"/>
   <sheetViews>
-    <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection sqref="A1:C1404"/>
+    <sheetView tabSelected="1" topLeftCell="A1373" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="A1381" sqref="A1381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
